--- a/src/main/resources/test_data/RegistrationData.xlsx
+++ b/src/main/resources/test_data/RegistrationData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84370CBF-9D25-4C72-814E-5577D3C324D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B928C31-103F-4DAE-B3AA-F2C95D6412B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,32 +21,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>U01</t>
   </si>
   <si>
-    <t>thanos</t>
-  </si>
-  <si>
-    <t>Thanos@gmail.com</t>
-  </si>
-  <si>
     <t>U02</t>
   </si>
   <si>
-    <t>captainemerica</t>
-  </si>
-  <si>
     <t>U03</t>
   </si>
   <si>
-    <t>blackwidow</t>
+    <t>supercuem159357@gmail.com</t>
+  </si>
+  <si>
+    <t>Shoe Store</t>
+  </si>
+  <si>
+    <t>Test ID</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -56,57 +59,45 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Test ID</t>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>repass</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>thano</t>
+  </si>
+  <si>
+    <t>taa</t>
+  </si>
+  <si>
+    <t>Thaco@gmail.com</t>
+  </si>
+  <si>
+    <t>T@gmail.com</t>
+  </si>
+  <si>
+    <t>Backcc</t>
+  </si>
+  <si>
+    <t>thuan4@fpt.edu.vn</t>
   </si>
   <si>
     <t>Input data</t>
-  </si>
-  <si>
-    <t>Test Registration</t>
-  </si>
-  <si>
-    <t>thanos, 1221, Nguyen Thanos, Thanos@gmail.com</t>
-  </si>
-  <si>
-    <t>captainemerica, 1221, Tran Captain, Captain@gmail.com</t>
-  </si>
-  <si>
-    <t>blackwidow, 1221, Nguyen Black, Black@gmail.com</t>
-  </si>
-  <si>
-    <t>scarlet, 1221, Tran Scarlet, Scarlet@gmail.com</t>
-  </si>
-  <si>
-    <t>supercuem159357@gmail.com</t>
-  </si>
-  <si>
-    <t>thuanlnps17935@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>Shoe Store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -129,7 +120,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,18 +129,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="9" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,24 +142,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,220 +404,144 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" collapsed="1"/>
-    <col min="5" max="5" width="18" bestFit="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1">
+        <v>123456789</v>
+      </c>
+      <c r="E1" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D2">
         <v>123456789</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>141414</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>151515</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D4">
         <v>242502</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>242502</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D438D268-753E-442D-9EF6-D113F7401598}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{133C393F-F629-4D40-B9C1-A7A2EED817F8}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{02D64A08-FA55-4EA3-9F25-F72083A01CEF}"/>
+    <hyperlink ref="C1" r:id="rId4" xr:uid="{9D4B175D-958A-4F57-ADFE-114BC75135A1}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" collapsed="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" collapsed="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" collapsed="1"/>
-    <col min="4" max="5" width="11" bestFit="1" collapsed="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" collapsed="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>